--- a/inputs/data_raw/Data_SJPF_planInfo_AV2020.xlsx
+++ b/inputs/data_raw/Data_SJPF_planInfo_AV2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19842CD2-B5DE-48C0-8F12-55C14685FCE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D3843F-D669-472E-8E05-2D7E383D6B16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_unrecReturn" sheetId="12" r:id="rId1"/>
@@ -714,8 +714,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -937,6 +937,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
@@ -949,167 +1108,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1581,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFE154-32C8-48F8-AF28-84298376E385}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1616,7 +1616,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>2019630</v>
+        <v>2020630</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1629,7 +1629,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="C8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="C9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="C10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1671,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFFA73-2D4A-4AA3-8BAA-C57267D0CB48}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1694,7 +1694,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="79"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -1707,7 +1707,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="79"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -1720,7 +1720,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="79"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -1733,7 +1733,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="79"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -1743,7 +1743,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="79"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="36">
       <c r="C6" s="8"/>
@@ -1753,10 +1753,10 @@
       <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="11"/>
@@ -1773,10 +1773,10 @@
       <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="78" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -1794,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="77">
+      <c r="F8" s="72">
         <v>2</v>
       </c>
       <c r="G8" s="23">
@@ -1815,7 +1815,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="77">
+      <c r="F9" s="72">
         <v>2</v>
       </c>
       <c r="G9" s="23">
@@ -1836,7 +1836,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="77">
+      <c r="F10" s="72">
         <v>3</v>
       </c>
       <c r="G10" s="23">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="78">
+      <c r="F11" s="73">
         <v>6</v>
       </c>
       <c r="G11" s="17">
@@ -1879,7 +1879,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="F12" s="77">
+      <c r="F12" s="72">
         <v>7</v>
       </c>
       <c r="G12" s="23">
@@ -1900,7 +1900,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="77">
+      <c r="F13" s="72">
         <v>6</v>
       </c>
       <c r="G13" s="23">
@@ -1921,7 +1921,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="22"/>
-      <c r="F14" s="77">
+      <c r="F14" s="72">
         <v>9</v>
       </c>
       <c r="G14" s="23">
@@ -1942,7 +1942,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="77">
+      <c r="F15" s="72">
         <v>6</v>
       </c>
       <c r="G15" s="23">
@@ -1963,7 +1963,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="77">
+      <c r="F16" s="72">
         <v>10</v>
       </c>
       <c r="G16" s="23">
@@ -1984,7 +1984,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="22"/>
-      <c r="F17" s="77">
+      <c r="F17" s="72">
         <v>6</v>
       </c>
       <c r="G17" s="23">
@@ -2005,7 +2005,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="77">
+      <c r="F18" s="72">
         <v>11</v>
       </c>
       <c r="G18" s="23">
@@ -2026,7 +2026,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="77">
+      <c r="F19" s="72">
         <v>8</v>
       </c>
       <c r="G19" s="23">
@@ -2047,7 +2047,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="77">
+      <c r="F20" s="72">
         <v>8</v>
       </c>
       <c r="G20" s="23">
@@ -2068,7 +2068,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="22"/>
-      <c r="F21" s="77">
+      <c r="F21" s="72">
         <v>12</v>
       </c>
       <c r="G21" s="23">
@@ -2089,7 +2089,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="22"/>
-      <c r="F22" s="77">
+      <c r="F22" s="72">
         <v>9</v>
       </c>
       <c r="G22" s="23">
@@ -2110,7 +2110,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="77">
+      <c r="F23" s="72">
         <v>13</v>
       </c>
       <c r="G23" s="23">
@@ -2131,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="77">
+      <c r="F24" s="72">
         <v>11</v>
       </c>
       <c r="G24" s="23">
@@ -2152,7 +2152,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="77">
+      <c r="F25" s="72">
         <v>14</v>
       </c>
       <c r="G25" s="23">
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="77">
+      <c r="F26" s="72">
         <v>11</v>
       </c>
       <c r="G26" s="23">
@@ -2194,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="22"/>
-      <c r="F27" s="77">
+      <c r="F27" s="72">
         <v>15</v>
       </c>
       <c r="G27" s="23">
@@ -2215,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="22"/>
-      <c r="F28" s="77">
+      <c r="F28" s="72">
         <v>11</v>
       </c>
       <c r="G28" s="23">
@@ -2236,7 +2236,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="22"/>
-      <c r="F29" s="77">
+      <c r="F29" s="72">
         <v>16</v>
       </c>
       <c r="G29" s="23">
@@ -2257,7 +2257,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="22"/>
-      <c r="F30" s="77">
+      <c r="F30" s="72">
         <v>12</v>
       </c>
       <c r="G30" s="23">
@@ -2278,7 +2278,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="22"/>
-      <c r="F31" s="77">
+      <c r="F31" s="72">
         <v>12</v>
       </c>
       <c r="G31" s="23">
@@ -2299,7 +2299,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="22"/>
-      <c r="F32" s="77">
+      <c r="F32" s="72">
         <v>17</v>
       </c>
       <c r="G32" s="23">
@@ -2320,7 +2320,7 @@
         <v>26</v>
       </c>
       <c r="E33" s="22"/>
-      <c r="F33" s="77">
+      <c r="F33" s="72">
         <v>13</v>
       </c>
       <c r="G33" s="23">
@@ -2341,7 +2341,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="22"/>
-      <c r="F34" s="77">
+      <c r="F34" s="72">
         <v>13</v>
       </c>
       <c r="G34" s="23">
@@ -2362,7 +2362,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="22"/>
-      <c r="F35" s="77">
+      <c r="F35" s="72">
         <v>18</v>
       </c>
       <c r="G35" s="23">
@@ -2383,7 +2383,7 @@
         <v>26</v>
       </c>
       <c r="E36" s="22"/>
-      <c r="F36" s="77">
+      <c r="F36" s="72">
         <v>14</v>
       </c>
       <c r="G36" s="23">
@@ -2404,7 +2404,7 @@
         <v>26</v>
       </c>
       <c r="E37" s="22"/>
-      <c r="F37" s="77">
+      <c r="F37" s="72">
         <v>19</v>
       </c>
       <c r="G37" s="23">
@@ -2425,7 +2425,7 @@
         <v>26</v>
       </c>
       <c r="E38" s="22"/>
-      <c r="F38" s="77">
+      <c r="F38" s="72">
         <v>15</v>
       </c>
       <c r="G38" s="23">
@@ -2446,7 +2446,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="22"/>
-      <c r="F39" s="77">
+      <c r="F39" s="72">
         <v>20</v>
       </c>
       <c r="G39" s="23">
@@ -2467,7 +2467,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="22"/>
-      <c r="F40" s="77">
+      <c r="F40" s="72">
         <v>2</v>
       </c>
       <c r="G40" s="23">
@@ -2488,7 +2488,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="22"/>
-      <c r="F41" s="77">
+      <c r="F41" s="72">
         <v>2</v>
       </c>
       <c r="G41" s="23">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="21"/>
-      <c r="F42" s="78">
+      <c r="F42" s="73">
         <v>3</v>
       </c>
       <c r="G42" s="17">
@@ -2531,7 +2531,7 @@
         <v>27</v>
       </c>
       <c r="E43" s="22"/>
-      <c r="F43" s="77">
+      <c r="F43" s="72">
         <v>6</v>
       </c>
       <c r="G43" s="23">
@@ -2552,7 +2552,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="22"/>
-      <c r="F44" s="77">
+      <c r="F44" s="72">
         <v>7</v>
       </c>
       <c r="G44" s="23">
@@ -2573,7 +2573,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="22"/>
-      <c r="F45" s="77">
+      <c r="F45" s="72">
         <v>6</v>
       </c>
       <c r="G45" s="23">
@@ -2594,7 +2594,7 @@
         <v>27</v>
       </c>
       <c r="E46" s="22"/>
-      <c r="F46" s="77">
+      <c r="F46" s="72">
         <v>9</v>
       </c>
       <c r="G46" s="23">
@@ -2615,7 +2615,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="22"/>
-      <c r="F47" s="77">
+      <c r="F47" s="72">
         <v>6</v>
       </c>
       <c r="G47" s="23">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="78">
+      <c r="F48" s="73">
         <v>10</v>
       </c>
       <c r="G48" s="17">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="78">
+      <c r="F49" s="73">
         <v>6</v>
       </c>
       <c r="G49" s="16">
@@ -2680,7 +2680,7 @@
         <v>27</v>
       </c>
       <c r="E50" s="22"/>
-      <c r="F50" s="77">
+      <c r="F50" s="72">
         <v>11</v>
       </c>
       <c r="G50" s="23">
@@ -2701,7 +2701,7 @@
         <v>27</v>
       </c>
       <c r="E51" s="22"/>
-      <c r="F51" s="77">
+      <c r="F51" s="72">
         <v>8</v>
       </c>
       <c r="G51" s="23">
@@ -2722,7 +2722,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="22"/>
-      <c r="F52" s="77">
+      <c r="F52" s="72">
         <v>8</v>
       </c>
       <c r="G52" s="23">
@@ -2743,7 +2743,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="22"/>
-      <c r="F53" s="77">
+      <c r="F53" s="72">
         <v>12</v>
       </c>
       <c r="G53" s="23">
@@ -2764,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="22"/>
-      <c r="F54" s="77">
+      <c r="F54" s="72">
         <v>9</v>
       </c>
       <c r="G54" s="23">
@@ -2785,7 +2785,7 @@
         <v>27</v>
       </c>
       <c r="E55" s="22"/>
-      <c r="F55" s="77">
+      <c r="F55" s="72">
         <v>13</v>
       </c>
       <c r="G55" s="23">
@@ -2806,7 +2806,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="22"/>
-      <c r="F56" s="77">
+      <c r="F56" s="72">
         <v>11</v>
       </c>
       <c r="G56" s="23">
@@ -2827,7 +2827,7 @@
         <v>27</v>
       </c>
       <c r="E57" s="22"/>
-      <c r="F57" s="77">
+      <c r="F57" s="72">
         <v>14</v>
       </c>
       <c r="G57" s="23">
@@ -2848,7 +2848,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="22"/>
-      <c r="F58" s="77">
+      <c r="F58" s="72">
         <v>11</v>
       </c>
       <c r="G58" s="23">
@@ -2869,7 +2869,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="22"/>
-      <c r="F59" s="77">
+      <c r="F59" s="72">
         <v>15</v>
       </c>
       <c r="G59" s="23">
@@ -2890,7 +2890,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="22"/>
-      <c r="F60" s="77">
+      <c r="F60" s="72">
         <v>11</v>
       </c>
       <c r="G60" s="23">
@@ -2911,7 +2911,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="22"/>
-      <c r="F61" s="77">
+      <c r="F61" s="72">
         <v>16</v>
       </c>
       <c r="G61" s="23">
@@ -2932,7 +2932,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="22"/>
-      <c r="F62" s="77">
+      <c r="F62" s="72">
         <v>12</v>
       </c>
       <c r="G62" s="23">
@@ -2953,7 +2953,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="22"/>
-      <c r="F63" s="77">
+      <c r="F63" s="72">
         <v>12</v>
       </c>
       <c r="G63" s="23">
@@ -2974,7 +2974,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="22"/>
-      <c r="F64" s="77">
+      <c r="F64" s="72">
         <v>17</v>
       </c>
       <c r="G64" s="23">
@@ -2995,7 +2995,7 @@
         <v>27</v>
       </c>
       <c r="E65" s="22"/>
-      <c r="F65" s="77">
+      <c r="F65" s="72">
         <v>13</v>
       </c>
       <c r="G65" s="23">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="21"/>
-      <c r="F66" s="78">
+      <c r="F66" s="73">
         <v>13</v>
       </c>
       <c r="G66" s="17">
@@ -3038,7 +3038,7 @@
         <v>27</v>
       </c>
       <c r="E67" s="22"/>
-      <c r="F67" s="77">
+      <c r="F67" s="72">
         <v>18</v>
       </c>
       <c r="G67" s="23">
@@ -3059,7 +3059,7 @@
         <v>27</v>
       </c>
       <c r="E68" s="22"/>
-      <c r="F68" s="77">
+      <c r="F68" s="72">
         <v>14</v>
       </c>
       <c r="G68" s="23">
@@ -3080,7 +3080,7 @@
         <v>27</v>
       </c>
       <c r="E69" s="22"/>
-      <c r="F69" s="77">
+      <c r="F69" s="72">
         <v>19</v>
       </c>
       <c r="G69" s="23">
@@ -3101,7 +3101,7 @@
         <v>27</v>
       </c>
       <c r="E70" s="22"/>
-      <c r="F70" s="77">
+      <c r="F70" s="72">
         <v>15</v>
       </c>
       <c r="G70" s="23">
@@ -3122,7 +3122,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="22"/>
-      <c r="F71" s="77">
+      <c r="F71" s="72">
         <v>20</v>
       </c>
       <c r="G71" s="23">
@@ -3143,10 +3143,10 @@
         <v>29</v>
       </c>
       <c r="E72" s="22"/>
-      <c r="F72" s="61">
+      <c r="F72" s="56">
         <v>11</v>
       </c>
-      <c r="G72" s="61">
+      <c r="G72" s="56">
         <v>0</v>
       </c>
       <c r="H72" s="12" t="s">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="E73" s="22"/>
-      <c r="F73" s="61">
+      <c r="F73" s="56">
         <v>14</v>
       </c>
-      <c r="G73" s="61">
+      <c r="G73" s="56">
         <v>0</v>
       </c>
       <c r="H73" s="12" t="s">
@@ -3185,10 +3185,10 @@
         <v>29</v>
       </c>
       <c r="E74" s="22"/>
-      <c r="F74" s="61">
+      <c r="F74" s="56">
         <v>11</v>
       </c>
-      <c r="G74" s="61">
+      <c r="G74" s="56">
         <v>40</v>
       </c>
       <c r="H74" s="12" t="s">
@@ -3206,10 +3206,10 @@
         <v>29</v>
       </c>
       <c r="E75" s="22"/>
-      <c r="F75" s="61">
+      <c r="F75" s="56">
         <v>15</v>
       </c>
-      <c r="G75" s="61">
+      <c r="G75" s="56">
         <v>7</v>
       </c>
       <c r="H75" s="12" t="s">
@@ -3227,10 +3227,10 @@
         <v>29</v>
       </c>
       <c r="E76" s="22"/>
-      <c r="F76" s="61">
+      <c r="F76" s="56">
         <v>11</v>
       </c>
-      <c r="G76" s="61">
+      <c r="G76" s="56">
         <v>-54</v>
       </c>
       <c r="H76" s="12" t="s">
@@ -3248,10 +3248,10 @@
         <v>29</v>
       </c>
       <c r="E77" s="22"/>
-      <c r="F77" s="61">
+      <c r="F77" s="56">
         <v>16</v>
       </c>
-      <c r="G77" s="61">
+      <c r="G77" s="56">
         <v>18</v>
       </c>
       <c r="H77" s="12" t="s">
@@ -3269,10 +3269,10 @@
         <v>29</v>
       </c>
       <c r="E78" s="22"/>
-      <c r="F78" s="61">
+      <c r="F78" s="56">
         <v>12</v>
       </c>
-      <c r="G78" s="61">
+      <c r="G78" s="56">
         <v>198</v>
       </c>
       <c r="H78" s="12" t="s">
@@ -3290,10 +3290,10 @@
         <v>29</v>
       </c>
       <c r="E79" s="22"/>
-      <c r="F79" s="61">
+      <c r="F79" s="56">
         <v>12</v>
       </c>
-      <c r="G79" s="61">
+      <c r="G79" s="56">
         <v>416</v>
       </c>
       <c r="H79" s="12" t="s">
@@ -3311,10 +3311,10 @@
         <v>29</v>
       </c>
       <c r="E80" s="22"/>
-      <c r="F80" s="61">
+      <c r="F80" s="56">
         <v>17</v>
       </c>
-      <c r="G80" s="61">
+      <c r="G80" s="56">
         <v>-141</v>
       </c>
       <c r="H80" s="12" t="s">
@@ -3332,10 +3332,10 @@
         <v>29</v>
       </c>
       <c r="E81" s="22"/>
-      <c r="F81" s="61">
+      <c r="F81" s="56">
         <v>13</v>
       </c>
-      <c r="G81" s="61">
+      <c r="G81" s="56">
         <v>-477</v>
       </c>
       <c r="H81" s="12" t="s">
@@ -3353,10 +3353,10 @@
         <v>29</v>
       </c>
       <c r="E82" s="22"/>
-      <c r="F82" s="61">
+      <c r="F82" s="56">
         <v>18</v>
       </c>
-      <c r="G82" s="61">
+      <c r="G82" s="56">
         <v>140</v>
       </c>
       <c r="H82" s="12" t="s">
@@ -3374,10 +3374,10 @@
         <v>29</v>
       </c>
       <c r="E83" s="22"/>
-      <c r="F83" s="61">
+      <c r="F83" s="56">
         <v>14</v>
       </c>
-      <c r="G83" s="61">
+      <c r="G83" s="56">
         <v>-77</v>
       </c>
       <c r="H83" s="12" t="s">
@@ -3395,10 +3395,10 @@
         <v>29</v>
       </c>
       <c r="E84" s="22"/>
-      <c r="F84" s="61">
+      <c r="F84" s="56">
         <v>19</v>
       </c>
-      <c r="G84" s="61">
+      <c r="G84" s="56">
         <v>-207</v>
       </c>
       <c r="H84" s="12" t="s">
@@ -3416,10 +3416,10 @@
         <v>29</v>
       </c>
       <c r="E85" s="22"/>
-      <c r="F85" s="61">
+      <c r="F85" s="56">
         <v>15</v>
       </c>
-      <c r="G85" s="61">
+      <c r="G85" s="56">
         <v>-160</v>
       </c>
       <c r="H85" s="12" t="s">
@@ -3437,10 +3437,10 @@
         <v>29</v>
       </c>
       <c r="E86" s="22"/>
-      <c r="F86" s="61">
-        <v>20</v>
-      </c>
-      <c r="G86" s="69">
+      <c r="F86" s="56">
+        <v>20</v>
+      </c>
+      <c r="G86" s="64">
         <v>-164</v>
       </c>
       <c r="H86" s="12" t="s">
@@ -3459,10 +3459,10 @@
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="21"/>
-      <c r="F87" s="61">
+      <c r="F87" s="56">
         <v>11</v>
       </c>
-      <c r="G87" s="61">
+      <c r="G87" s="56">
         <v>-24</v>
       </c>
       <c r="H87" s="12" t="s">
@@ -3480,10 +3480,10 @@
         <v>28</v>
       </c>
       <c r="E88" s="22"/>
-      <c r="F88" s="61">
+      <c r="F88" s="56">
         <v>14</v>
       </c>
-      <c r="G88" s="61">
+      <c r="G88" s="56">
         <v>-4</v>
       </c>
       <c r="H88" s="12" t="s">
@@ -3501,10 +3501,10 @@
         <v>28</v>
       </c>
       <c r="E89" s="22"/>
-      <c r="F89" s="61">
+      <c r="F89" s="56">
         <v>11</v>
       </c>
-      <c r="G89" s="61">
+      <c r="G89" s="56">
         <v>17</v>
       </c>
       <c r="H89" s="12" t="s">
@@ -3522,10 +3522,10 @@
         <v>28</v>
       </c>
       <c r="E90" s="22"/>
-      <c r="F90" s="61">
+      <c r="F90" s="56">
         <v>15</v>
       </c>
-      <c r="G90" s="61">
+      <c r="G90" s="56">
         <v>-17</v>
       </c>
       <c r="H90" s="12" t="s">
@@ -3543,10 +3543,10 @@
         <v>28</v>
       </c>
       <c r="E91" s="22"/>
-      <c r="F91" s="61">
+      <c r="F91" s="56">
         <v>11</v>
       </c>
-      <c r="G91" s="61">
+      <c r="G91" s="56">
         <v>-124</v>
       </c>
       <c r="H91" s="12" t="s">
@@ -3564,10 +3564,10 @@
         <v>28</v>
       </c>
       <c r="E92" s="22"/>
-      <c r="F92" s="61">
+      <c r="F92" s="56">
         <v>16</v>
       </c>
-      <c r="G92" s="61">
+      <c r="G92" s="56">
         <v>85</v>
       </c>
       <c r="H92" s="12" t="s">
@@ -3585,10 +3585,10 @@
         <v>28</v>
       </c>
       <c r="E93" s="22"/>
-      <c r="F93" s="61">
+      <c r="F93" s="56">
         <v>12</v>
       </c>
-      <c r="G93" s="61">
+      <c r="G93" s="56">
         <v>643</v>
       </c>
       <c r="H93" s="12" t="s">
@@ -3605,10 +3605,10 @@
       <c r="C94" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F94" s="61">
+      <c r="F94" s="56">
         <v>12</v>
       </c>
-      <c r="G94" s="61">
+      <c r="G94" s="56">
         <v>753</v>
       </c>
       <c r="H94" s="12" t="s">
@@ -3625,10 +3625,10 @@
       <c r="C95" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="61">
+      <c r="F95" s="56">
         <v>17</v>
       </c>
-      <c r="G95" s="61">
+      <c r="G95" s="56">
         <v>-479</v>
       </c>
       <c r="H95" s="12" t="s">
@@ -3645,10 +3645,10 @@
       <c r="C96" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F96" s="61">
+      <c r="F96" s="56">
         <v>13</v>
       </c>
-      <c r="G96" s="61">
+      <c r="G96" s="56">
         <v>-997</v>
       </c>
       <c r="H96" s="12" t="s">
@@ -3665,10 +3665,10 @@
       <c r="C97" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="61">
+      <c r="F97" s="56">
         <v>18</v>
       </c>
-      <c r="G97" s="61">
+      <c r="G97" s="56">
         <v>413</v>
       </c>
       <c r="H97" s="12" t="s">
@@ -3685,10 +3685,10 @@
       <c r="C98" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F98" s="61">
+      <c r="F98" s="56">
         <v>14</v>
       </c>
-      <c r="G98" s="61">
+      <c r="G98" s="56">
         <v>15</v>
       </c>
       <c r="H98" s="12" t="s">
@@ -3705,10 +3705,10 @@
       <c r="C99" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="61">
+      <c r="F99" s="56">
         <v>19</v>
       </c>
-      <c r="G99" s="61">
+      <c r="G99" s="56">
         <v>-10</v>
       </c>
       <c r="H99" s="12" t="s">
@@ -3725,10 +3725,10 @@
       <c r="C100" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="61">
+      <c r="F100" s="56">
         <v>15</v>
       </c>
-      <c r="G100" s="61">
+      <c r="G100" s="56">
         <v>-2311</v>
       </c>
       <c r="H100" s="12" t="s">
@@ -3745,10 +3745,10 @@
       <c r="C101" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="61">
-        <v>20</v>
-      </c>
-      <c r="G101" s="69">
+      <c r="F101" s="56">
+        <v>20</v>
+      </c>
+      <c r="G101" s="64">
         <v>405</v>
       </c>
       <c r="H101" s="12" t="s">
@@ -3775,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BA894-C57D-4344-8269-499E3FED8AF1}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" activeCellId="1" sqref="E6:E37 G6:G37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3796,44 +3796,44 @@
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="53" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3841,33 +3841,33 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="28">
         <v>38533</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="30">
         <v>2</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="30">
         <f>H6*I6/K6</f>
         <v>2978.1910972497872</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="30">
         <f>H6*J6/K6</f>
         <v>3501.8089027502128</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3875,33 +3875,33 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="28">
         <v>38533</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="30">
         <v>2</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="30">
         <f t="shared" ref="F7:F37" si="0">H7*I7/K7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="30">
         <f t="shared" ref="G7:G37" si="1">H7*J7/K7</f>
         <v>5308</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="32">
         <v>5308</v>
       </c>
-      <c r="I7" s="37">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
         <v>2889</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="34">
         <v>2889</v>
       </c>
     </row>
@@ -3909,33 +3909,33 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>39263</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="30">
         <f t="shared" si="0"/>
         <v>12490</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="32">
         <v>12490</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="32">
         <v>4626</v>
       </c>
-      <c r="J8" s="37">
-        <v>0</v>
-      </c>
-      <c r="K8" s="38">
+      <c r="J8" s="33">
+        <v>0</v>
+      </c>
+      <c r="K8" s="34">
         <v>4626</v>
       </c>
     </row>
@@ -3943,33 +3943,33 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="28">
         <v>39263</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="30">
         <v>6</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="30">
         <f t="shared" si="0"/>
         <v>-27374.864601996418</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="30">
         <f t="shared" si="1"/>
         <v>-32176.135398003582</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="35">
         <v>-59551</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="35">
         <v>-5388</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="35">
         <v>-6333</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="36">
         <v>-11721</v>
       </c>
     </row>
@@ -3977,33 +3977,33 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="28">
         <v>39263</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>7</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="30">
         <f t="shared" si="0"/>
         <v>6496.0764802631575</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="30">
         <f t="shared" si="1"/>
         <v>7634.9235197368425</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="32">
         <v>14131</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="32">
         <v>1118</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="32">
         <v>1314</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="34">
         <v>2432</v>
       </c>
     </row>
@@ -4011,33 +4011,33 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="28">
         <v>39994</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="30">
         <v>6</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="30">
         <f t="shared" si="0"/>
         <v>62628.386299224345</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="30">
         <f t="shared" si="1"/>
         <v>73612.613700775662</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="32">
         <v>136241</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="32">
         <v>12327</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="32">
         <v>14489</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="34">
         <v>26816</v>
       </c>
     </row>
@@ -4045,33 +4045,33 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>39994</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="30">
         <v>9</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="30">
         <f t="shared" si="0"/>
         <v>39231.676285017245</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="30">
         <f t="shared" si="1"/>
         <v>46110.143686380077</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="32">
         <v>85349</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="32">
         <v>5464</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="32">
         <v>6422</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="34">
         <v>11887</v>
       </c>
     </row>
@@ -4079,33 +4079,33 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="28">
         <v>40359</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="30">
         <v>6</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="30">
         <f t="shared" si="0"/>
         <v>45048.901757478357</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="30">
         <f t="shared" si="1"/>
         <v>52949.098242521643</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="32">
         <v>97998</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="32">
         <v>8867</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="32">
         <v>10422</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="34">
         <v>19289</v>
       </c>
     </row>
@@ -4113,33 +4113,33 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="28">
         <v>40359</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="30">
         <v>10</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="30">
         <f t="shared" si="0"/>
         <v>31270.295491143319</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="30">
         <f t="shared" si="1"/>
         <v>36746.704508856681</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="32">
         <v>68017</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="32">
         <v>3997</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="32">
         <v>4697</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="34">
         <v>8694</v>
       </c>
     </row>
@@ -4147,33 +4147,33 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="28">
         <v>40724</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="30">
         <v>6</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="30">
         <f t="shared" si="0"/>
         <v>-76209.892433575427</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="30">
         <f t="shared" si="1"/>
         <v>-89577.107566424573</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="35">
         <v>-165787</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="35">
         <v>-15000</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="35">
         <v>-17631</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="36">
         <v>-32631</v>
       </c>
     </row>
@@ -4181,33 +4181,33 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="28">
         <v>40724</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="30">
         <v>11</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="30">
         <f t="shared" si="0"/>
         <v>21734.176932690592</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="30">
         <f t="shared" si="1"/>
         <v>25540.823067309408</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="32">
         <v>47275</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="32">
         <v>2575</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="32">
         <v>3026</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="34">
         <v>5601</v>
       </c>
     </row>
@@ -4215,33 +4215,33 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="28">
         <v>41090</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="30">
         <v>8</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="30">
         <f t="shared" si="0"/>
         <v>45058.041702636299</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="30">
         <f t="shared" si="1"/>
         <v>52960.448900989439</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="32">
         <v>98025</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="32">
         <v>6922</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="32">
         <v>8136</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="34">
         <v>15059</v>
       </c>
     </row>
@@ -4249,33 +4249,33 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="28">
         <v>41090</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="30">
         <v>8</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="30">
         <f t="shared" si="0"/>
         <v>-10986.476449768581</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="30">
         <f t="shared" si="1"/>
         <v>-12913.014974135584</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="35">
         <v>-23906</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="35">
         <v>-1688</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="35">
         <v>-1984</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="36">
         <v>-3673</v>
       </c>
     </row>
@@ -4283,33 +4283,33 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="28">
         <v>41090</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="30">
         <v>12</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="30">
         <f t="shared" si="0"/>
         <v>43551.546381923923</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="30">
         <f t="shared" si="1"/>
         <v>51183.453618076077</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="32">
         <v>94735</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="32">
         <v>4822</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="32">
         <v>5667</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="34">
         <v>10489</v>
       </c>
     </row>
@@ -4317,33 +4317,33 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="28">
         <v>41455</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="30">
         <v>9</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="30">
         <f t="shared" si="0"/>
         <v>29396.262295081968</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="30">
         <f t="shared" si="1"/>
         <v>34551.737704918036</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="32">
         <v>63948</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="32">
         <v>4094</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="32">
         <v>4812</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="34">
         <v>8906</v>
       </c>
     </row>
@@ -4351,33 +4351,33 @@
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="28">
         <v>41455</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="30">
         <v>13</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="30">
         <f t="shared" si="0"/>
         <v>11748.653398422832</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="30">
         <f t="shared" si="1"/>
         <v>13812.346601577168</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="32">
         <v>25561</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="32">
         <v>1224</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="32">
         <v>1439</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="34">
         <v>2663</v>
       </c>
     </row>
@@ -4385,33 +4385,33 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="28">
         <v>41820</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="30">
         <v>11</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="30">
         <f t="shared" si="0"/>
         <v>-24519.211234177215</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="30">
         <f t="shared" si="1"/>
         <v>-28823.788765822785</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="35">
         <v>-53343</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="35">
         <v>-2905</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="35">
         <v>-3415</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="36">
         <v>-6320</v>
       </c>
     </row>
@@ -4419,33 +4419,33 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="28">
         <v>41820</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="30">
         <v>14</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="30">
         <f t="shared" si="0"/>
         <v>23773.215686274511</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="30">
         <f t="shared" si="1"/>
         <v>27941.642156862745</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="32">
         <v>51725</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="32">
         <v>2344</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="32">
         <v>2755</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="34">
         <v>5100</v>
       </c>
     </row>
@@ -4453,33 +4453,33 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="28">
         <v>42185</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="30">
         <v>11</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="30">
         <f t="shared" si="0"/>
         <v>-4059.3276026743074</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="30">
         <f t="shared" si="1"/>
         <v>-4776.6723973256921</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="35">
         <v>-8836</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="37">
         <v>-481</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="37">
         <v>-566</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="36">
         <v>-1047</v>
       </c>
     </row>
@@ -4487,33 +4487,33 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="28">
         <v>42185</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="30">
         <v>15</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="30">
         <f t="shared" si="0"/>
         <v>39160.645888096129</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="30">
         <f t="shared" si="1"/>
         <v>46028.68944799099</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="32">
         <v>85200</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="32">
         <v>3672</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="32">
         <v>4316</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="34">
         <v>7989</v>
       </c>
     </row>
@@ -4521,33 +4521,33 @@
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="28">
         <v>42551</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="30">
         <v>11</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="30">
         <f t="shared" si="0"/>
         <v>65617.028027436143</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="30">
         <f t="shared" si="1"/>
         <v>77129.971972563857</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="32">
         <v>142747</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="32">
         <v>7774</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="32">
         <v>9138</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="34">
         <v>16912</v>
       </c>
     </row>
@@ -4555,33 +4555,33 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="28">
         <v>42551</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="30">
         <v>16</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="30">
         <f t="shared" si="0"/>
         <v>32098.496961944355</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="30">
         <f t="shared" si="1"/>
         <v>37725.503038055642</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="32">
         <v>69824</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="32">
         <v>2875</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="32">
         <v>3379</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="34">
         <v>6254</v>
       </c>
     </row>
@@ -4589,33 +4589,33 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="28">
         <v>42551</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="30">
         <v>12</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="30">
         <f t="shared" si="0"/>
         <v>379.49032258064517</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="30">
         <f t="shared" si="1"/>
         <v>2421.5096774193548</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="32">
         <v>2801</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="33">
         <v>42</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="33">
         <v>268</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="38">
         <v>310</v>
       </c>
     </row>
@@ -4623,33 +4623,33 @@
       <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="28">
         <v>42916</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="30">
         <v>12</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="30">
         <f t="shared" si="0"/>
         <v>45438.043033348564</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="30">
         <f t="shared" si="1"/>
         <v>53412.956966651436</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="32">
         <v>98851</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="32">
         <v>5031</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="32">
         <v>5914</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="34">
         <v>10945</v>
       </c>
     </row>
@@ -4657,33 +4657,33 @@
       <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="28">
         <v>42916</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="30">
         <v>17</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="30">
         <f t="shared" si="0"/>
         <v>-58784.536927420086</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="30">
         <f t="shared" si="1"/>
         <v>-69090.463072579907</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="35">
         <v>-127875</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="35">
         <v>-5048</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="35">
         <v>-5933</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="36">
         <v>-10981</v>
       </c>
     </row>
@@ -4691,33 +4691,33 @@
       <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="28">
         <v>43281</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="30">
         <v>13</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="30">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="33">
         <v>90</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="33">
         <v>1</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="33">
         <v>9</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="38">
         <v>9</v>
       </c>
     </row>
@@ -4725,33 +4725,33 @@
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="28">
         <v>43281</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="30">
         <v>13</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="30">
         <f t="shared" si="0"/>
         <v>18198.19786614937</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="30">
         <f t="shared" si="1"/>
         <v>21384.80213385063</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="32">
         <v>39583</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="32">
         <v>1896</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="32">
         <v>2228</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="34">
         <v>4124</v>
       </c>
     </row>
@@ -4759,33 +4759,33 @@
       <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="28">
         <v>43281</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="30">
         <v>18</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="30">
         <f t="shared" si="0"/>
         <v>34315.082684824905</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="30">
         <f t="shared" si="1"/>
         <v>40330.813229571984</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="32">
         <v>74658</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="32">
         <v>2835</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="32">
         <v>3332</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="34">
         <v>6168</v>
       </c>
     </row>
@@ -4793,33 +4793,33 @@
       <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="28">
         <v>43646</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="30">
         <v>14</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="30">
         <f t="shared" si="0"/>
         <v>64368.87003767024</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="30">
         <f t="shared" si="1"/>
         <v>75648.129962329753</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="32">
         <v>140017</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="32">
         <v>6346</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="32">
         <v>7458</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="34">
         <v>13804</v>
       </c>
     </row>
@@ -4827,33 +4827,33 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="28">
         <v>43646</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="30">
         <v>19</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="30">
         <f t="shared" si="0"/>
         <v>36938.373516552158</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="30">
         <f t="shared" si="1"/>
         <v>43412.626483447842</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="32">
         <v>80351</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="32">
         <v>2944</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="32">
         <v>3460</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="34">
         <v>6404</v>
       </c>
     </row>
@@ -4861,76 +4861,76 @@
       <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="28">
         <v>44012</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="30">
         <v>15</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="30">
         <f t="shared" si="0"/>
         <v>33551.356714891132</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="30">
         <f t="shared" si="1"/>
         <v>39427.643285108868</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="32">
         <v>72979</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="32">
         <v>3146</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="32">
         <v>3697</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="34">
         <v>6843</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="25.5">
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="28">
         <v>44012</v>
       </c>
-      <c r="E37" s="34">
-        <v>20</v>
-      </c>
-      <c r="F37" s="34">
+      <c r="E37" s="30">
+        <v>20</v>
+      </c>
+      <c r="F37" s="30">
         <f t="shared" si="0"/>
         <v>33678.278357812778</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="30">
         <f t="shared" si="1"/>
         <v>39591.753494956647</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="32">
         <v>73283</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="32">
         <v>2597</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="32">
         <v>3053</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="34">
         <v>5651</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="39" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="44">
+      <c r="H38" s="40">
         <v>136661</v>
       </c>
       <c r="I38" s="19"/>
@@ -4938,65 +4938,65 @@
       <c r="K38" s="19"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="47" t="s">
+      <c r="H39" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="47" t="s">
+      <c r="I39" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="47" t="s">
+      <c r="J39" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="36">
+      <c r="H40" s="32">
         <v>717792</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="32">
         <v>34555</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="32">
         <v>38870</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="34">
         <v>73425</v>
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="46" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="51">
+      <c r="H41" s="47">
         <v>667235</v>
       </c>
-      <c r="I41" s="51">
+      <c r="I41" s="47">
         <v>34094</v>
       </c>
-      <c r="J41" s="51">
+      <c r="J41" s="47">
         <v>39497</v>
       </c>
-      <c r="K41" s="52">
+      <c r="K41" s="48">
         <v>73591</v>
       </c>
     </row>
@@ -5034,43 +5034,43 @@
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1"/>
     <row r="5" spans="1:9">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="54"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="7"/>
@@ -5081,404 +5081,404 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="52">
         <v>41820</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="54">
         <v>11</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="52">
         <v>41820</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="54">
         <v>14</v>
       </c>
-      <c r="F9" s="61">
-        <v>0</v>
-      </c>
-      <c r="G9" s="62">
+      <c r="F9" s="56">
+        <v>0</v>
+      </c>
+      <c r="G9" s="57">
         <v>-4</v>
       </c>
-      <c r="H9" s="61">
-        <v>0</v>
-      </c>
-      <c r="I9" s="63">
+      <c r="H9" s="56">
+        <v>0</v>
+      </c>
+      <c r="I9" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="52">
         <v>42185</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="54">
         <v>11</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="56">
         <v>40</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="56">
         <v>17</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="56">
         <v>5</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="52">
         <v>42185</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="54">
         <v>15</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="56">
         <v>7</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="57">
         <v>-17</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="56">
         <v>1</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="58">
         <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="52">
         <v>42551</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="54">
         <v>11</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="57">
         <v>-54</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="57">
         <v>-124</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="57">
         <v>-6</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="58">
         <v>-15</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="52">
         <v>42551</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="54">
         <v>16</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="56">
         <v>18</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="56">
         <v>85</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="56">
         <v>2</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="59">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="52">
         <v>42551</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="54">
         <v>12</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="56">
         <v>198</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="56">
         <v>643</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="56">
         <v>22</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="59">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="52">
         <v>42916</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="54">
         <v>12</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="56">
         <v>416</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="56">
         <v>753</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="56">
         <v>46</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="59">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="52">
         <v>42916</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="54">
         <v>17</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="57">
         <v>-141</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="57">
         <v>-479</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="57">
         <v>-12</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="58">
         <v>-41</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="52">
         <v>43281</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="54">
         <v>13</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="57">
         <v>-477</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="57">
         <v>-997</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="57">
         <v>-50</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="58">
         <v>-104</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="52">
         <v>43281</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="54">
         <v>18</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="56">
         <v>140</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="56">
         <v>413</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="56">
         <v>12</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="59">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="52">
         <v>43646</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="54">
         <v>14</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="57">
         <v>-77</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="56">
         <v>15</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="57">
         <v>-8</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="52">
         <v>43646</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="54">
         <v>19</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="57">
         <v>-207</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="57">
         <v>-10</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="57">
         <v>-17</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="58">
         <v>-1</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="52">
         <v>44012</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="54">
         <v>15</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="57">
         <v>-160</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="60">
         <v>-2311</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="57">
         <v>-15</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="58">
         <v>-217</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="62">
         <v>44012</v>
       </c>
-      <c r="E22" s="59">
-        <v>20</v>
-      </c>
-      <c r="F22" s="68">
+      <c r="E22" s="54">
+        <v>20</v>
+      </c>
+      <c r="F22" s="63">
         <v>-164</v>
       </c>
-      <c r="G22" s="69">
+      <c r="G22" s="64">
         <v>405</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="63">
         <v>-13</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="65">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="68" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="62">
+      <c r="F24" s="57">
         <v>-540</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="60">
         <v>-2256</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="57">
         <v>-46</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="58">
         <v>-214</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="69" t="s">
         <v>82</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="75">
+      <c r="F25" s="70">
         <v>78</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="70">
         <v>620</v>
       </c>
-      <c r="H25" s="75">
+      <c r="H25" s="70">
         <v>13</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="71">
         <v>63</v>
       </c>
     </row>
